--- a/SpeCalcCode/SpeCalc/obj/Release/Package/PackageTmp/bin/App_Data/Specification.xlsx
+++ b/SpeCalcCode/SpeCalc/obj/Release/Package/PackageTmp/bin/App_Data/Specification.xlsx
@@ -12,7 +12,10 @@
     <sheet name="Лист3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Единицы">Лист2!$A$1:$A$2</definedName>
+    <definedName name="prods">Лист2!$A$1:$A$50</definedName>
+    <definedName name="products">Лист2!$A$1:$A$11</definedName>
+    <definedName name="units">Лист3!$A$1:$A$2</definedName>
+    <definedName name="Единицы">Лист3!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -551,12 +554,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="4" topLeftCell="A493" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="G9" sqref="G9 G9 A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C502" sqref="C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -759,97 +762,1547 @@
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="15"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="15"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="15"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="15"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="15"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="15"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="15"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="15"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="15"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="15"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="15"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="15"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="15"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="15"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="15"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="15"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="15"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="15"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="15"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="15"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="15"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="15"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="15"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="15"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="15"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="15"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="15"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="15"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="15"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="15"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="15"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="15"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="15"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="15"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="15"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="15"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="15"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="15"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="15"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="15"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="15"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="15"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="15"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="15"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="15"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="15"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="15"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="15"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="15"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="15"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="15"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="15"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="15"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="15"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="15"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="15"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="15"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="15"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="15"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="15"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="15"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="15"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="15"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="15"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="15"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="15"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="15"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="15"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="15"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="15"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="15"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="15"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="15"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="15"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="15"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="15"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="15"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="15"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="15"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="15"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="15"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="15"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="15"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="15"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="15"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="15"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="15"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="15"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="15"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="15"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="15"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="15"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="15"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="15"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="15"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="15"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="15"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="15"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="15"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="15"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="15"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="15"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="15"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="15"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="15"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="15"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="15"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="15"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="15"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="15"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="15"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="15"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="15"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="15"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="15"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="15"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="15"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="15"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="15"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="15"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="15"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="15"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208" s="15"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F209" s="15"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F210" s="15"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F211" s="15"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="15"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="15"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214" s="15"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F215" s="15"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F216" s="15"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F217" s="15"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F218" s="15"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F219" s="15"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F220" s="15"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="15"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F222" s="15"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F223" s="15"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F224" s="15"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225" s="15"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="15"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="15"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228" s="15"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="15"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F230" s="15"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="15"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="15"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F233" s="15"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F234" s="15"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F235" s="15"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F236" s="15"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F237" s="15"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F238" s="15"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F239" s="15"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F240" s="15"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241" s="15"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242" s="15"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243" s="15"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="15"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245" s="15"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="15"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247" s="15"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248" s="15"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249" s="15"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250" s="15"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F251" s="15"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F252" s="15"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F253" s="15"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F254" s="15"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F255" s="15"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F256" s="15"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F257" s="15"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F258" s="15"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F259" s="15"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F260" s="15"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F261" s="15"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F262" s="15"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F263" s="15"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="15"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F265" s="15"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F266" s="15"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F267" s="15"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F268" s="15"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F269" s="15"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F270" s="15"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F271" s="15"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F272" s="15"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F273" s="15"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F274" s="15"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F275" s="15"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F276" s="15"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F277" s="15"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F278" s="15"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F279" s="15"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F280" s="15"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F281" s="15"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F282" s="15"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F283" s="15"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F284" s="15"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F285" s="15"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F286" s="15"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F287" s="15"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F288" s="15"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F289" s="15"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F290" s="15"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F291" s="15"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F292" s="15"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F293" s="15"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F294" s="15"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F295" s="15"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F296" s="15"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F297" s="15"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F298" s="15"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F299" s="15"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F300" s="15"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F301" s="15"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F302" s="15"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F303" s="15"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F304" s="15"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F305" s="15"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F306" s="15"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F307" s="15"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F308" s="15"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F309" s="15"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F310" s="15"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F311" s="15"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F312" s="15"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F313" s="15"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F314" s="15"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F315" s="15"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F316" s="15"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F317" s="15"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F318" s="15"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F319" s="15"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F320" s="15"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F321" s="15"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F322" s="15"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F323" s="15"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F324" s="15"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F325" s="15"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F326" s="15"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F327" s="15"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F328" s="15"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F329" s="15"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F330" s="15"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F331" s="15"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F332" s="15"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F333" s="15"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F334" s="15"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F335" s="15"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F336" s="15"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F337" s="15"/>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F338" s="15"/>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F339" s="15"/>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F340" s="15"/>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F341" s="15"/>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F342" s="15"/>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F343" s="15"/>
+    </row>
+    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F344" s="15"/>
+    </row>
+    <row r="345" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F345" s="15"/>
+    </row>
+    <row r="346" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F346" s="15"/>
+    </row>
+    <row r="347" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F347" s="15"/>
+    </row>
+    <row r="348" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F348" s="15"/>
+    </row>
+    <row r="349" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F349" s="15"/>
+    </row>
+    <row r="350" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F350" s="15"/>
+    </row>
+    <row r="351" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F351" s="15"/>
+    </row>
+    <row r="352" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F352" s="15"/>
+    </row>
+    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F353" s="15"/>
+    </row>
+    <row r="354" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F354" s="15"/>
+    </row>
+    <row r="355" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F355" s="15"/>
+    </row>
+    <row r="356" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F356" s="15"/>
+    </row>
+    <row r="357" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F357" s="15"/>
+    </row>
+    <row r="358" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F358" s="15"/>
+    </row>
+    <row r="359" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F359" s="15"/>
+    </row>
+    <row r="360" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F360" s="15"/>
+    </row>
+    <row r="361" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F361" s="15"/>
+    </row>
+    <row r="362" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F362" s="15"/>
+    </row>
+    <row r="363" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F363" s="15"/>
+    </row>
+    <row r="364" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F364" s="15"/>
+    </row>
+    <row r="365" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F365" s="15"/>
+    </row>
+    <row r="366" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F366" s="15"/>
+    </row>
+    <row r="367" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F367" s="15"/>
+    </row>
+    <row r="368" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F368" s="15"/>
+    </row>
+    <row r="369" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F369" s="15"/>
+    </row>
+    <row r="370" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F370" s="15"/>
+    </row>
+    <row r="371" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F371" s="15"/>
+    </row>
+    <row r="372" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F372" s="15"/>
+    </row>
+    <row r="373" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F373" s="15"/>
+    </row>
+    <row r="374" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F374" s="15"/>
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F375" s="15"/>
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F376" s="15"/>
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F377" s="15"/>
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F378" s="15"/>
+    </row>
+    <row r="379" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F379" s="15"/>
+    </row>
+    <row r="380" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F380" s="15"/>
+    </row>
+    <row r="381" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F381" s="15"/>
+    </row>
+    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F382" s="15"/>
+    </row>
+    <row r="383" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F383" s="15"/>
+    </row>
+    <row r="384" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F384" s="15"/>
+    </row>
+    <row r="385" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F385" s="15"/>
+    </row>
+    <row r="386" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F386" s="15"/>
+    </row>
+    <row r="387" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F387" s="15"/>
+    </row>
+    <row r="388" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F388" s="15"/>
+    </row>
+    <row r="389" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F389" s="15"/>
+    </row>
+    <row r="390" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F390" s="15"/>
+    </row>
+    <row r="391" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F391" s="15"/>
+    </row>
+    <row r="392" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F392" s="15"/>
+    </row>
+    <row r="393" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F393" s="15"/>
+    </row>
+    <row r="394" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F394" s="15"/>
+    </row>
+    <row r="395" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F395" s="15"/>
+    </row>
+    <row r="396" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F396" s="15"/>
+    </row>
+    <row r="397" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F397" s="15"/>
+    </row>
+    <row r="398" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F398" s="15"/>
+    </row>
+    <row r="399" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F399" s="15"/>
+    </row>
+    <row r="400" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F400" s="15"/>
+    </row>
+    <row r="401" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F401" s="15"/>
+    </row>
+    <row r="402" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F402" s="15"/>
+    </row>
+    <row r="403" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F403" s="15"/>
+    </row>
+    <row r="404" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F404" s="15"/>
+    </row>
+    <row r="405" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F405" s="15"/>
+    </row>
+    <row r="406" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F406" s="15"/>
+    </row>
+    <row r="407" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F407" s="15"/>
+    </row>
+    <row r="408" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F408" s="15"/>
+    </row>
+    <row r="409" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F409" s="15"/>
+    </row>
+    <row r="410" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F410" s="15"/>
+    </row>
+    <row r="411" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F411" s="15"/>
+    </row>
+    <row r="412" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F412" s="15"/>
+    </row>
+    <row r="413" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F413" s="15"/>
+    </row>
+    <row r="414" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F414" s="15"/>
+    </row>
+    <row r="415" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F415" s="15"/>
+    </row>
+    <row r="416" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F416" s="15"/>
+    </row>
+    <row r="417" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F417" s="15"/>
+    </row>
+    <row r="418" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F418" s="15"/>
+    </row>
+    <row r="419" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F419" s="15"/>
+    </row>
+    <row r="420" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F420" s="15"/>
+    </row>
+    <row r="421" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F421" s="15"/>
+    </row>
+    <row r="422" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F422" s="15"/>
+    </row>
+    <row r="423" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F423" s="15"/>
+    </row>
+    <row r="424" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F424" s="15"/>
+    </row>
+    <row r="425" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F425" s="15"/>
+    </row>
+    <row r="426" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F426" s="15"/>
+    </row>
+    <row r="427" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F427" s="15"/>
+    </row>
+    <row r="428" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F428" s="15"/>
+    </row>
+    <row r="429" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F429" s="15"/>
+    </row>
+    <row r="430" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F430" s="15"/>
+    </row>
+    <row r="431" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F431" s="15"/>
+    </row>
+    <row r="432" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F432" s="15"/>
+    </row>
+    <row r="433" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F433" s="15"/>
+    </row>
+    <row r="434" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F434" s="15"/>
+    </row>
+    <row r="435" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F435" s="15"/>
+    </row>
+    <row r="436" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F436" s="15"/>
+    </row>
+    <row r="437" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F437" s="15"/>
+    </row>
+    <row r="438" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F438" s="15"/>
+    </row>
+    <row r="439" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F439" s="15"/>
+    </row>
+    <row r="440" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F440" s="15"/>
+    </row>
+    <row r="441" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F441" s="15"/>
+    </row>
+    <row r="442" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F442" s="15"/>
+    </row>
+    <row r="443" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F443" s="15"/>
+    </row>
+    <row r="444" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F444" s="15"/>
+    </row>
+    <row r="445" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F445" s="15"/>
+    </row>
+    <row r="446" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F446" s="15"/>
+    </row>
+    <row r="447" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F447" s="15"/>
+    </row>
+    <row r="448" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F448" s="15"/>
+    </row>
+    <row r="449" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F449" s="15"/>
+    </row>
+    <row r="450" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F450" s="15"/>
+    </row>
+    <row r="451" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F451" s="15"/>
+    </row>
+    <row r="452" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F452" s="15"/>
+    </row>
+    <row r="453" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F453" s="15"/>
+    </row>
+    <row r="454" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F454" s="15"/>
+    </row>
+    <row r="455" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F455" s="15"/>
+    </row>
+    <row r="456" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F456" s="15"/>
+    </row>
+    <row r="457" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F457" s="15"/>
+    </row>
+    <row r="458" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F458" s="15"/>
+    </row>
+    <row r="459" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F459" s="15"/>
+    </row>
+    <row r="460" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F460" s="15"/>
+    </row>
+    <row r="461" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F461" s="15"/>
+    </row>
+    <row r="462" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F462" s="15"/>
+    </row>
+    <row r="463" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F463" s="15"/>
+    </row>
+    <row r="464" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F464" s="15"/>
+    </row>
+    <row r="465" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F465" s="15"/>
+    </row>
+    <row r="466" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F466" s="15"/>
+    </row>
+    <row r="467" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F467" s="15"/>
+    </row>
+    <row r="468" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F468" s="15"/>
+    </row>
+    <row r="469" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F469" s="15"/>
+    </row>
+    <row r="470" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F470" s="15"/>
+    </row>
+    <row r="471" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F471" s="15"/>
+    </row>
+    <row r="472" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F472" s="15"/>
+    </row>
+    <row r="473" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F473" s="15"/>
+    </row>
+    <row r="474" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F474" s="15"/>
+    </row>
+    <row r="475" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F475" s="15"/>
+    </row>
+    <row r="476" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F476" s="15"/>
+    </row>
+    <row r="477" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F477" s="15"/>
+    </row>
+    <row r="478" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F478" s="15"/>
+    </row>
+    <row r="479" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F479" s="15"/>
+    </row>
+    <row r="480" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F480" s="15"/>
+    </row>
+    <row r="481" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F481" s="15"/>
+    </row>
+    <row r="482" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F482" s="15"/>
+    </row>
+    <row r="483" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F483" s="15"/>
+    </row>
+    <row r="484" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F484" s="15"/>
+    </row>
+    <row r="485" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F485" s="15"/>
+    </row>
+    <row r="486" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F486" s="15"/>
+    </row>
+    <row r="487" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F487" s="15"/>
+    </row>
+    <row r="488" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F488" s="15"/>
+    </row>
+    <row r="489" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F489" s="15"/>
+    </row>
+    <row r="490" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F490" s="15"/>
+    </row>
+    <row r="491" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F491" s="15"/>
+    </row>
+    <row r="492" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F492" s="15"/>
+    </row>
+    <row r="493" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F493" s="15"/>
+    </row>
+    <row r="494" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F494" s="15"/>
+    </row>
+    <row r="495" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F495" s="15"/>
+    </row>
+    <row r="496" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F496" s="15"/>
+    </row>
+    <row r="497" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F497" s="15"/>
+    </row>
+    <row r="498" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F498" s="15"/>
+    </row>
+    <row r="499" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F499" s="15"/>
+    </row>
+    <row r="500" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F500" s="15"/>
+    </row>
+    <row r="501" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F501" s="15"/>
+    </row>
+    <row r="502" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F502" s="15"/>
+    </row>
+    <row r="503" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F503" s="15"/>
+    </row>
+    <row r="504" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F504" s="15"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D19">
       <formula1>Единицы</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F504">
+      <formula1>products</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+      <formula1>units</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+      <formula1>prods</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Лист2!$B$1:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5:F19</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -861,16 +2314,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D18"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18 D18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
